--- a/tabela1.xlsx
+++ b/tabela1.xlsx
@@ -443,59 +443,53 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Amount</t>
+          <t>2000</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Type</t>
+          <t>expense</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Frequency</t>
+          <t>monthly</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Assinged_User</t>
+          <t>Adam</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Description</t>
-        </is>
-      </c>
+          <t>Rozrywka</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Month</t>
+          <t>February</t>
         </is>
       </c>
       <c r="H1" s="3" t="inlineStr">
         <is>
-          <t>User</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Time</t>
-        </is>
+          <t>Adrian</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n">
+        <v>45711.3774759838</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2200</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>income</t>
+          <t>expense</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -508,8 +502,11 @@
           <t>Marta</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Jedzenie</t>
+        </is>
+      </c>
       <c r="G2" t="inlineStr">
         <is>
           <t>February</t>
@@ -521,7 +518,7 @@
         </is>
       </c>
       <c r="I2" s="4" t="n">
-        <v>45710.97817566765</v>
+        <v>45711.37437861111</v>
       </c>
     </row>
   </sheetData>
